--- a/runs/CNNParameterTuning/DifferentKernelSize.xlsx
+++ b/runs/CNNParameterTuning/DifferentKernelSize.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>5KernelSize</t>
   </si>
@@ -30,19 +30,16 @@
   <si>
     <t>13KernelSize</t>
   </si>
-  <si>
-    <t>1conv_10kernel_1step</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -60,11 +57,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -77,30 +88,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,61 +109,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -190,7 +134,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,7 +150,52 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -213,7 +210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -237,7 +234,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,73 +270,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -327,7 +288,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,13 +306,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,19 +360,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,7 +378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,8 +422,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,22 +440,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -490,16 +487,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -524,148 +521,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="7">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,13 +1021,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F581"/>
+  <dimension ref="A1:E581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9"/>
     <col min="2" max="2" width="11.7272727272727" customWidth="1"/>
@@ -1039,7 +1036,7 @@
     <col min="5" max="5" width="12.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,9 +1051,6 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5">

--- a/runs/CNNParameterTuning/DifferentKernelSize.xlsx
+++ b/runs/CNNParameterTuning/DifferentKernelSize.xlsx
@@ -16,19 +16,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>5KernelSize</t>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>×</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
   </si>
   <si>
-    <t>7KernelSize</t>
+    <t>1×7</t>
   </si>
   <si>
-    <t>9KernelSize</t>
+    <t>1×9</t>
   </si>
   <si>
-    <t>11KernelSize</t>
+    <t>1×11</t>
   </si>
   <si>
-    <t>13KernelSize</t>
+    <t>1×13</t>
   </si>
 </sst>
 </file>
@@ -36,12 +57,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -58,7 +79,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -68,14 +89,6 @@
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,23 +108,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,14 +131,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,11 +168,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -164,22 +184,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -195,10 +209,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -210,7 +237,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,19 +279,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,31 +315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,19 +333,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,13 +345,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,13 +363,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,48 +418,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,8 +449,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -433,15 +510,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,17 +529,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -486,183 +543,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="7">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="8">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="8">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1024,7 +1051,7 @@
   <dimension ref="A1:E581"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.4" outlineLevelCol="4"/>
